--- a/projects/inflation_project/Data/CALM Financials.xlsx
+++ b/projects/inflation_project/Data/CALM Financials.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Desktop\webdevstuff\Projects\da-portfolio\projects\Inflation\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\OneDrive\Desktop\data_analytics\projects\inflation_project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA942DF-D066-48E1-8070-34C5BE12C578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97FD11A-ED3D-4E0B-8BF3-6B2A86894F2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DFC465B2-AB9F-4667-91DE-4CA3214EB1B8}"/>
+    <workbookView xWindow="-28920" yWindow="-60" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{DFC465B2-AB9F-4667-91DE-4CA3214EB1B8}"/>
   </bookViews>
   <sheets>
     <sheet name="CALM" sheetId="2" r:id="rId1"/>
+    <sheet name="CALM_profits" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">CALM!$A$1:$B$26</definedName>
@@ -50,15 +51,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
   <si>
-    <t>date</t>
+    <t>CALM_gross_profits_millions</t>
   </si>
   <si>
-    <t>gross_profits_millions</t>
-  </si>
-  <si>
-    <t>gross_profit_margin</t>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -109,39 +107,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
@@ -166,11 +154,10 @@
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="2" xr16:uid="{2398A665-E94A-469D-8D78-224C3BC505E4}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="5" unboundColumnsRight="1">
-    <queryTableFields count="3">
+  <queryTableRefresh nextId="5">
+    <queryTableFields count="2">
       <queryTableField id="2" name="Column2" tableColumnId="2"/>
       <queryTableField id="3" name="Column3" tableColumnId="3"/>
-      <queryTableField id="4" dataBound="0" tableColumnId="1"/>
     </queryTableFields>
     <queryTableDeletedFields count="1">
       <deletedField name="Column1"/>
@@ -180,12 +167,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE9A0AEA-D7CA-44F7-B105-867531D987D1}" name="Table_Table_1" displayName="Table_Table_1" ref="A1:C26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="A1:C26" xr:uid="{CE9A0AEA-D7CA-44F7-B105-867531D987D1}"/>
-  <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{1E417F8B-A73A-4F48-94B8-5F2A72C6BCBF}" uniqueName="2" name="date" queryTableFieldId="2" dataDxfId="1" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{A5355D63-E101-4197-8535-768C1FB2ECD6}" uniqueName="3" name="gross_profits_millions" queryTableFieldId="3" dataCellStyle="Currency"/>
-    <tableColumn id="1" xr3:uid="{9A041E76-D3BD-487D-ADBE-E743DE55EEDC}" uniqueName="1" name="gross_profit_margin" queryTableFieldId="4" dataDxfId="0" dataCellStyle="Percent"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CE9A0AEA-D7CA-44F7-B105-867531D987D1}" name="Table_Table_1" displayName="Table_Table_1" ref="A1:B26" tableType="queryTable" totalsRowShown="0" headerRowDxfId="1" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="A1:B26" xr:uid="{CE9A0AEA-D7CA-44F7-B105-867531D987D1}"/>
+  <tableColumns count="2">
+    <tableColumn id="2" xr3:uid="{1E417F8B-A73A-4F48-94B8-5F2A72C6BCBF}" uniqueName="2" name="Date" queryTableFieldId="2" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="3" xr3:uid="{A5355D63-E101-4197-8535-768C1FB2ECD6}" uniqueName="3" name="CALM_gross_profits_millions" queryTableFieldId="3" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -488,438 +474,554 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B42B15-06E6-4BF8-B3B8-1446F5546611}">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>44985</v>
-      </c>
-      <c r="B2" s="8">
+        <v>44986</v>
+      </c>
+      <c r="B2" s="5">
         <v>463</v>
       </c>
-      <c r="C2" s="6">
-        <v>0.4642</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>44895</v>
-      </c>
-      <c r="B3" s="8">
+        <v>44896</v>
+      </c>
+      <c r="B3" s="5">
         <v>318</v>
       </c>
-      <c r="C3" s="6">
-        <v>0.39650000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>44804</v>
-      </c>
-      <c r="B4" s="8">
+        <v>44805</v>
+      </c>
+      <c r="B4" s="5">
         <v>217</v>
       </c>
-      <c r="C4" s="6">
-        <v>0.33040000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>44712</v>
-      </c>
-      <c r="B5" s="8">
+        <v>44713</v>
+      </c>
+      <c r="B5" s="5">
         <v>195</v>
       </c>
-      <c r="C5" s="6">
-        <v>0.32900000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>44620</v>
-      </c>
-      <c r="B6" s="8">
+        <v>44621</v>
+      </c>
+      <c r="B6" s="5">
         <v>92</v>
       </c>
-      <c r="C6" s="6">
-        <v>0.1918</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44530</v>
-      </c>
-      <c r="B7" s="8">
+        <v>44531</v>
+      </c>
+      <c r="B7" s="5">
         <v>44</v>
       </c>
-      <c r="C7" s="6">
-        <v>0.11459999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>44439</v>
-      </c>
-      <c r="B8" s="8">
+        <v>44440</v>
+      </c>
+      <c r="B8" s="5">
         <v>7</v>
       </c>
-      <c r="C8" s="6">
-        <v>2.0400000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44347</v>
-      </c>
-      <c r="B9" s="8">
+        <v>44348</v>
+      </c>
+      <c r="B9" s="5">
         <v>38</v>
       </c>
-      <c r="C9" s="6">
-        <v>0.1084</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>44255</v>
-      </c>
-      <c r="B10" s="8">
+        <v>44256</v>
+      </c>
+      <c r="B10" s="5">
         <v>48</v>
       </c>
-      <c r="C10" s="6">
-        <v>0.1323</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44165</v>
-      </c>
-      <c r="B11" s="8">
+        <v>44166</v>
+      </c>
+      <c r="B11" s="5">
         <v>58</v>
       </c>
-      <c r="C11" s="6">
-        <v>0.16830000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>44074</v>
-      </c>
-      <c r="B12" s="8">
+        <v>44075</v>
+      </c>
+      <c r="B12" s="5">
         <v>17</v>
       </c>
-      <c r="C12" s="6">
-        <v>5.7299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43982</v>
-      </c>
-      <c r="B13" s="8">
+        <v>43983</v>
+      </c>
+      <c r="B13" s="5">
         <v>122</v>
       </c>
-      <c r="C13" s="6">
-        <v>0.26800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43890</v>
-      </c>
-      <c r="B14" s="8">
+        <v>43891</v>
+      </c>
+      <c r="B14" s="5">
         <v>50</v>
       </c>
-      <c r="C14" s="6">
-        <v>0.14419999999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43799</v>
-      </c>
-      <c r="B15" s="8">
+        <v>43800</v>
+      </c>
+      <c r="B15" s="5">
         <v>29</v>
       </c>
-      <c r="C15" s="6">
-        <v>9.4299999999999995E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43708</v>
-      </c>
-      <c r="B16" s="8">
+        <v>43709</v>
+      </c>
+      <c r="B16" s="5">
         <v>-21</v>
       </c>
-      <c r="C16" s="6">
-        <v>-8.7599999999999997E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43616</v>
-      </c>
-      <c r="B17" s="8">
+        <v>43617</v>
+      </c>
+      <c r="B17" s="5">
         <v>13</v>
       </c>
-      <c r="C17" s="6">
-        <v>4.5499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43524</v>
-      </c>
-      <c r="B18" s="8">
+        <v>43525</v>
+      </c>
+      <c r="B18" s="5">
         <v>82</v>
       </c>
-      <c r="C18" s="6">
-        <v>0.2147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43434</v>
-      </c>
-      <c r="B19" s="8">
+        <v>43435</v>
+      </c>
+      <c r="B19" s="5">
         <v>71</v>
       </c>
-      <c r="C19" s="6">
-        <v>0.1981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43343</v>
-      </c>
-      <c r="B20" s="8">
+        <v>43344</v>
+      </c>
+      <c r="B20" s="5">
         <v>57</v>
       </c>
-      <c r="C20" s="6">
-        <v>0.16769999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43251</v>
-      </c>
-      <c r="B21" s="8">
+        <v>43252</v>
+      </c>
+      <c r="B21" s="5">
         <v>141</v>
       </c>
-      <c r="C21" s="6">
-        <v>0.31869999999999998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43159</v>
-      </c>
-      <c r="B22" s="8">
+        <v>43160</v>
+      </c>
+      <c r="B22" s="5">
         <v>120</v>
       </c>
-      <c r="C22" s="6">
-        <v>0.27560000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43069</v>
-      </c>
-      <c r="B23" s="8">
+        <v>43070</v>
+      </c>
+      <c r="B23" s="5">
         <v>82</v>
       </c>
-      <c r="C23" s="6">
-        <v>0.2281</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>42978</v>
-      </c>
-      <c r="B24" s="8">
+        <v>42979</v>
+      </c>
+      <c r="B24" s="5">
         <v>17</v>
       </c>
-      <c r="C24" s="6">
-        <v>6.6000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>42886</v>
-      </c>
-      <c r="B25" s="8">
+        <v>42887</v>
+      </c>
+      <c r="B25" s="5">
         <v>12</v>
       </c>
-      <c r="C25" s="6">
-        <v>4.3700000000000003E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>42794</v>
-      </c>
-      <c r="B26" s="8">
+        <v>42795</v>
+      </c>
+      <c r="B26" s="5">
         <v>39</v>
       </c>
-      <c r="C26" s="6">
-        <v>0.1278</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27"/>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28"/>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29"/>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30"/>
-      <c r="C30" s="6"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31"/>
-      <c r="C31" s="6"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32"/>
-      <c r="C32" s="6"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33"/>
-      <c r="C33" s="6"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34"/>
-      <c r="C34" s="6"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35"/>
-      <c r="C35" s="6"/>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36"/>
-      <c r="C36" s="6"/>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37"/>
-      <c r="C37" s="6"/>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38"/>
-      <c r="C38" s="6"/>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39"/>
-      <c r="C39" s="6"/>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40"/>
-      <c r="C40" s="6"/>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41"/>
-      <c r="C41" s="6"/>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42"/>
-      <c r="C42" s="6"/>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43"/>
-      <c r="C43" s="6"/>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44"/>
-      <c r="C44" s="6"/>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45"/>
-      <c r="C45" s="6"/>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46"/>
-      <c r="C46" s="6"/>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47"/>
-      <c r="C47" s="6"/>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48"/>
-      <c r="C48" s="6"/>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49"/>
-      <c r="C49" s="6"/>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50"/>
-      <c r="C50" s="6"/>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51"/>
-      <c r="C51" s="6"/>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52"/>
-      <c r="C52" s="6"/>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53"/>
-      <c r="C53" s="6"/>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54"/>
-      <c r="C54" s="6"/>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55"/>
-      <c r="C55" s="6"/>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56"/>
-      <c r="C56" s="6"/>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57"/>
-      <c r="C57" s="6"/>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58"/>
-      <c r="C58" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1286B0EA-1344-4847-89F2-709579BBDFA0}">
+  <dimension ref="A1:B26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14:K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" style="5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>44986</v>
+      </c>
+      <c r="B2" s="5">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44896</v>
+      </c>
+      <c r="B3" s="5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>44805</v>
+      </c>
+      <c r="B4" s="5">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>44713</v>
+      </c>
+      <c r="B5" s="5">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44621</v>
+      </c>
+      <c r="B6" s="5">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>44531</v>
+      </c>
+      <c r="B7" s="5">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>44440</v>
+      </c>
+      <c r="B8" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>44348</v>
+      </c>
+      <c r="B9" s="5">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>44256</v>
+      </c>
+      <c r="B10" s="5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>44166</v>
+      </c>
+      <c r="B11" s="5">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>44075</v>
+      </c>
+      <c r="B12" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B13" s="5">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43891</v>
+      </c>
+      <c r="B14" s="5">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B15" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43709</v>
+      </c>
+      <c r="B16" s="5">
+        <v>-21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43617</v>
+      </c>
+      <c r="B17" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43525</v>
+      </c>
+      <c r="B18" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43435</v>
+      </c>
+      <c r="B19" s="5">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43344</v>
+      </c>
+      <c r="B20" s="5">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B21" s="5">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43160</v>
+      </c>
+      <c r="B22" s="5">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43070</v>
+      </c>
+      <c r="B23" s="5">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B24" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42887</v>
+      </c>
+      <c r="B25" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42795</v>
+      </c>
+      <c r="B26" s="5">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
